--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3474.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3474.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3474</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rohit G Sharma</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>23/06/2007</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2698</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2700</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2736</t>
+          <t>2736</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2758</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2782</t>
+          <t>2782</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2784</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2787</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2788</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2792</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2793</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2797</t>
+          <t>2797</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2798</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2801</t>
+          <t>2801</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2817</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2818</t>
+          <t>2818</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2819</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2828</t>
+          <t>2828</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2829</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2833</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2842</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2844</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2847</t>
+          <t>2847</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2857</t>
+          <t>2857</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2860</t>
+          <t>2860</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2865</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2871</t>
+          <t>2871</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2873</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2896</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2899</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2905</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2928</t>
+          <t>2928</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2937</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2940</t>
+          <t>2940</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2308,7 +2372,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>11/03/2009</t>
@@ -2316,7 +2379,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2946</t>
+          <t>2946</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2368,7 +2431,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2947</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2420,7 +2483,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2472,7 +2535,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2564,7 +2627,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -2572,7 +2634,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2978</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2624,7 +2686,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3093</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2676,7 +2738,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3111</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2728,7 +2790,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2780,7 +2842,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3116</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2936,7 +2998,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3126</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2988,7 +3050,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3132</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3040,7 +3102,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3130</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3092,7 +3154,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3161</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3144,7 +3206,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3163</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3196,7 +3258,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3169</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3248,7 +3310,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3171</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3300,7 +3362,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3340,7 +3402,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>10/12/2010</t>
@@ -3348,7 +3409,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3212</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3400,7 +3461,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3214</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3452,7 +3513,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3215</t>
+          <t>3215</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3504,7 +3565,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3217</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3556,7 +3617,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3219</t>
+          <t>3219</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3608,7 +3669,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3222</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3660,7 +3721,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3294</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3712,7 +3773,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3295</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3764,7 +3825,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3816,7 +3877,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3868,7 +3929,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3920,7 +3981,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3972,7 +4033,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4024,7 +4085,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4076,7 +4137,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4128,7 +4189,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4180,7 +4241,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4232,7 +4293,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4284,7 +4345,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4336,7 +4397,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4388,7 +4449,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4440,7 +4501,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4480,7 +4541,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>13/03/2012</t>
@@ -4488,7 +4548,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4540,7 +4600,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4592,7 +4652,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4644,7 +4704,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4696,7 +4756,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4748,7 +4808,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4800,7 +4860,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4852,7 +4912,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4904,7 +4964,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4956,7 +5016,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5008,7 +5068,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5060,7 +5120,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5112,7 +5172,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5164,7 +5224,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5216,7 +5276,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5268,7 +5328,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5320,7 +5380,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5372,7 +5432,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5424,7 +5484,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5476,7 +5536,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5528,7 +5588,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5580,7 +5640,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3537</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5632,7 +5692,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3539</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5684,7 +5744,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5736,7 +5796,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3544</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5788,7 +5848,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5840,7 +5900,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5892,7 +5952,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5944,7 +6004,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5996,7 +6056,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6048,7 +6108,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6100,7 +6160,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6152,7 +6212,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6204,7 +6264,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6256,7 +6316,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6308,7 +6368,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6348,7 +6408,6 @@
           <t>114</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>11/12/2013</t>
@@ -6356,7 +6415,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6408,7 +6467,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6460,7 +6519,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6512,7 +6571,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6564,7 +6623,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6616,7 +6675,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6668,7 +6727,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6720,7 +6779,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6772,7 +6831,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6824,7 +6883,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6876,7 +6935,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6928,7 +6987,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6980,7 +7039,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7032,7 +7091,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7084,7 +7143,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7136,7 +7195,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7188,7 +7247,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7240,7 +7299,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7292,7 +7351,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7344,7 +7403,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7396,7 +7455,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7448,7 +7507,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7500,7 +7559,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7552,7 +7611,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7604,7 +7663,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7656,7 +7715,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7708,7 +7767,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7760,7 +7819,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7812,7 +7871,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7864,7 +7923,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7916,7 +7975,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7968,7 +8027,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8020,7 +8079,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8072,7 +8131,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8124,7 +8183,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8176,7 +8235,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8228,7 +8287,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8280,7 +8339,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8332,7 +8391,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8384,7 +8443,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8436,7 +8495,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8488,7 +8547,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8540,7 +8599,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8592,7 +8651,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8644,7 +8703,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8696,7 +8755,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8748,7 +8807,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8800,7 +8859,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8852,7 +8911,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8904,7 +8963,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8956,7 +9015,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9008,7 +9067,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9060,7 +9119,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9112,7 +9171,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9164,7 +9223,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9216,7 +9275,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9268,7 +9327,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9320,7 +9379,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9372,7 +9431,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9424,7 +9483,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9476,7 +9535,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9528,7 +9587,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9580,7 +9639,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9632,7 +9691,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9684,7 +9743,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9736,7 +9795,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9788,7 +9847,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9840,7 +9899,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9892,7 +9951,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9944,7 +10003,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9996,7 +10055,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10048,7 +10107,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10100,7 +10159,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10152,7 +10211,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10204,7 +10263,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10256,7 +10315,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10308,7 +10367,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10360,7 +10419,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10412,7 +10471,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10464,7 +10523,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10516,7 +10575,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10568,7 +10627,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10620,7 +10679,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10672,7 +10731,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10724,7 +10783,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10776,7 +10835,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10828,7 +10887,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10880,7 +10939,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10932,7 +10991,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10984,7 +11043,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11036,7 +11095,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11088,7 +11147,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11140,7 +11199,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11192,7 +11251,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11244,7 +11303,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11296,7 +11355,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11348,7 +11407,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11400,7 +11459,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11452,7 +11511,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11504,7 +11563,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11556,7 +11615,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11608,7 +11667,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11648,7 +11707,6 @@
           <t>216</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -11656,7 +11714,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11708,7 +11766,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11760,7 +11818,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11812,7 +11870,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11864,7 +11922,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11916,7 +11974,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11968,7 +12026,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -12020,7 +12078,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12072,7 +12130,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12124,7 +12182,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12176,7 +12234,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12228,7 +12286,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12280,7 +12338,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12332,7 +12390,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12384,7 +12442,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12436,7 +12494,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12488,7 +12546,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12540,7 +12598,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12592,7 +12650,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -12644,7 +12702,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12696,7 +12754,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -12748,7 +12806,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -12800,7 +12858,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -12852,7 +12910,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -12904,7 +12962,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12956,7 +13014,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -13008,7 +13066,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -13060,7 +13118,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -13099,7 +13157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13121,7 +13179,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -13158,7 +13216,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2700</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13195,7 +13253,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -13232,7 +13290,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2844</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -13269,7 +13327,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2847</t>
+          <t>2847</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -13306,7 +13364,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2857</t>
+          <t>2857</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -13343,7 +13401,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2865</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -13380,7 +13438,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2871</t>
+          <t>2871</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -13417,7 +13475,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2873</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -13454,7 +13512,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2928</t>
+          <t>2928</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -13491,7 +13549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2940</t>
+          <t>2940</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -13528,7 +13586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -13565,7 +13623,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -13602,7 +13660,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3093</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -13639,7 +13697,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3111</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -13676,7 +13734,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -13713,7 +13771,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3132</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -13750,7 +13808,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -13787,7 +13845,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3214</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -13824,7 +13882,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3215</t>
+          <t>3215</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -13861,7 +13919,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3217</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -13898,7 +13956,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3219</t>
+          <t>3219</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -13935,7 +13993,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3222</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -13972,7 +14030,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -14009,7 +14067,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -14046,7 +14104,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -14083,7 +14141,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -14120,7 +14178,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -14157,7 +14215,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -14194,7 +14252,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -14231,7 +14289,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -14268,7 +14326,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -14305,7 +14363,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -14342,7 +14400,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -14379,7 +14437,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -14416,7 +14474,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -14453,7 +14511,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -14490,7 +14548,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -14527,7 +14585,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -14553,6 +14611,583 @@
       <c r="G39" t="inlineStr">
         <is>
           <t>0/11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.18%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.83%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11.25%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.91%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6.51%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14.52%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19.17%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.76%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.95%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.23%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.10%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3474.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3474.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14731,10 +14732,6 @@
           <t>4456</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14777,10 +14774,6 @@
           <t>4533</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14896,7 +14889,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14999,197 +14991,469 @@
           <t>4687</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.76%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.95%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.23%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.10%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3215</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3219</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3359</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.76%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3433</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>3435</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>45.95%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>26.23%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>12.10%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3474.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3474.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2640,7 +2639,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6421,7 +6420,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11720,7 +11719,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -14732,6 +14731,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14774,6 +14777,10 @@
           <t>4533</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14889,6 +14896,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14991,6 +14999,10 @@
           <t>4687</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15033,6 +15045,10 @@
           <t>4691</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15045,6 +15061,10 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15170,290 +15190,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3215</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3217</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3219</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3222</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3353</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3359</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3367</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3373</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3375</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3380</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3395</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3397</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3399</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3433</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3434</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3435</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3580</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3621</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3781</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3874</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3474.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3474.xlsx
@@ -14625,7 +14625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14668,57 +14668,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>41.18%</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8.83%</t>
-        </is>
-      </c>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14728,13 +14702,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>2736</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14744,25 +14732,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>18.91%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -14774,13 +14762,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>2782</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14.95%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14790,27 +14792,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.11%</t>
-        </is>
-      </c>
+          <t>2784</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14820,15 +14808,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -14838,7 +14826,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.91%</t>
+          <t>24.38%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -14850,25 +14838,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>35.90%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -14880,11 +14868,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -14896,7 +14884,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14906,27 +14898,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.51%</t>
-        </is>
-      </c>
+          <t>2793</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14936,25 +14914,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>2797</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14.52%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -14966,25 +14944,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4682</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>19.17%</t>
+          <t>1.67%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -14996,7 +14974,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -15012,25 +14990,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>2801</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.76%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -15042,7 +15020,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -15058,13 +15036,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11.66%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15074,25 +15066,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>45.95%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -15104,27 +15096,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>26.23%</t>
-        </is>
-      </c>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15134,27 +15112,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
+          <t>2829</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15164,28 +15128,5676 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.75%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2842</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18.83%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2844</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13.01%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2860</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2865</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13.50%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6.98%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2873</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2896</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.84%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14.14%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2905</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2928</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2937</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2946</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.86%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2977</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2978</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>17.45%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3111</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>41.56%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3116</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>6.70%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3118</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3123</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8.12%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33.01%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>15.30%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3161</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10.68%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>13.71%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3212</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3214</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3215</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>4.74%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3219</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3294</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>31.34%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3295</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3.83%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3296</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22.71%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>33.80%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3355</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3357</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>38.93%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3359</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>6.46%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>13.91%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>6.36%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1.38%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3431</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3433</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3435</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1.36%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3455</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>32.17%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1.77%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>19.64%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22.03%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>17.65%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.20%</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2.67%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>14.79%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>40.34%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3537</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3539</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3541</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>7.49%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>44.14%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>38.95%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3.63%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>54.57%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>13.01%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>7.22%</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>12.42%</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.42%</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>11.25%</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>17.11%</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3693</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>65.35%</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>3696</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>54.81%</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3.78%</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>24.62%</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>45.36%</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>14.59%</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>27.63%</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>9.15%</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>50.34%</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>3844</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>25.79%</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>3848</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>3851</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>55.34%</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>6.36%</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>4.50%</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>26.02%</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>28.53%</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>24.30%</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>6.22%</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>46.42%</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>27.73%</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>9.96%</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>24.15%</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>51.44%</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>43.62%</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>3.20%</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>12.61%</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>41.97%</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>7.28%</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>50.93%</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>6.36%</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>31.71%</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>47.70%</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>46.64%</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>21.52%</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>3.33%</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>42.97%</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>52.36%</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>7.05%</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>25.31%</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>7.61%</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>26.54%</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>23.63%</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>16.19%</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>41.67%</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>6.72%</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>33.12%</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>38.87%</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>6.45%</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>41.09%</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>19.94%</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>12.35%</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>41.18%</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>8.83%</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>11.25%</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>4.91%</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>6.51%</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>14.52%</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>9</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>19.17%</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>7.76%</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>45.95%</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>26.23%</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B244" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>12.10%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
